--- a/Task.Smoke + Ad hoc + exploratory testing/google drive.xlsx
+++ b/Task.Smoke + Ad hoc + exploratory testing/google drive.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FD1BF4-4AD3-4D54-BFD4-199AE93C4F58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C5BB2A-61F9-4816-B98C-E1AA4D3D099B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 part" sheetId="1" r:id="rId1"/>
@@ -2140,7 +2140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2417,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8017AD0F-53C6-4B9B-9F76-C7C105C00970}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Task.Smoke + Ad hoc + exploratory testing/google drive.xlsx
+++ b/Task.Smoke + Ad hoc + exploratory testing/google drive.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C5BB2A-61F9-4816-B98C-E1AA4D3D099B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBA8D3B-2180-4E96-AB2B-2F8C5941B217}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 part" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>Check that it is possible to add the file to the Google Drive</t>
   </si>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>Check that it is possible to share permission on view and downloading the file from Google Drive</t>
-  </si>
-  <si>
-    <t>1. The Drop-down list should be opened
-2. Secected file should be downloaded on the device</t>
   </si>
   <si>
     <t>1. The Drop-down list should be opened
@@ -87,32 +83,14 @@
 3. Selected folder should be added to Google Drive and displayed in the file catalog</t>
   </si>
   <si>
-    <t>1. The "New" button should be pressed
-2. The "Folder" should be selected
-3. The "MyFolder" should be entered
-4. The "Create" button should be pressed and added to the Google Drive and displayed in the file catalog</t>
-  </si>
-  <si>
     <t>1. The Drop-down list should be opened
 2. The message "Removed one file" should be displayed and the file should be removed from the file catalog in Google Drive</t>
   </si>
   <si>
-    <t>1. The "New" button should be clicked
-2. The "File upload" should be selected
-3. Selected file should be added to Google Drive and displayed in the file catalog</t>
-  </si>
-  <si>
     <t>1. The "Search Drive" field should be activated and "MyFile" should be entered
 2. The search operation should find a file with name "MyFile" and displayed it in the search results</t>
   </si>
   <si>
-    <t>1. The "Search Drive" field should be activated and displayed drop-down list with file typs
-2. The search operation should find a file "MyFile" with pdf type and display it in the search results</t>
-  </si>
-  <si>
-    <t>1. The file with name "MyFile" should be opened in view mode</t>
-  </si>
-  <si>
     <t>Anatolii Tymoshchuk</t>
   </si>
   <si>
@@ -152,29 +130,6 @@
     <t>Check that it is possible to download the .docx file from own account in the Google Drive</t>
   </si>
   <si>
-    <t>1. The context menu should be opened
-2. "MyFile" file with type .pdf should be downloaded to the device</t>
-  </si>
-  <si>
-    <t>1. The context menu should be opened
-2. "MyFile" file with type .docx should be downloaded to the device</t>
-  </si>
-  <si>
-    <t>1. The context menu should be opened
-2. "MyFile" file with type .pptx should be downloaded to the device</t>
-  </si>
-  <si>
-    <t>1. The context menu should be opened
-2. "MyFile" file with type .xlsx should be downloaded to the device</t>
-  </si>
-  <si>
-    <t>1. The context menu should be opened
-2. The folder "MyFile" should be downloaded to the device</t>
-  </si>
-  <si>
-    <t>Hight</t>
-  </si>
-  <si>
     <t>9/26/2018  15:20:00 AM</t>
   </si>
   <si>
@@ -202,35 +157,29 @@
     <t>Check that it is possible to share permission on view and downloading the file from Google Drive via link</t>
   </si>
   <si>
-    <t>1. The cjntext menu list should be opened
-2. The window "Share with others" should be opened
-3. The "Share link" should be copied
-4. The link must be received by the recipient and he should be with permission on view the file</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Preconditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://drive.google.com/ opened. And contained  the PDF fiel with name "MyFile"
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Preconditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+The website https://drive.google.com/ opened and contained any file
 </t>
     </r>
     <r>
@@ -255,14 +204,34 @@
         <scheme val="minor"/>
       </rPr>
       <t>:
-1. Click Right button on the file "MyFile" with type .xlsx 
-2. Select "Download"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Preconditions:
-The website https://drive.google.com/ opened. And contained  the PDF fiel with name "MyFile"
+1. Click Right button on the file which should be removed
+2. Select "Remove"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Preconditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+The website https://drive.google.com/ opened.
 </t>
     </r>
     <r>
@@ -287,8 +256,10 @@
         <scheme val="minor"/>
       </rPr>
       <t>:
-1. Click Right button on the file "MyFile" with type .pptx 
-2. Select "Download"</t>
+1. Click on the "New" button
+2. Select "Folder"
+3. Enter "MyFolder" in the input field
+4. Click on the "Create" button</t>
     </r>
   </si>
   <si>
@@ -314,7 +285,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">:
-The website https://drive.google.com/ opened. And contained  the PDF fiel with name "MyFile"
+The website https://drive.google.com/ opened. And contained  a file with name "MyFile"
 </t>
     </r>
     <r>
@@ -339,8 +310,8 @@
         <scheme val="minor"/>
       </rPr>
       <t>:
-1. Click Right button on the file "MyFile" with type .docx 
-2. Select "Download"</t>
+1. Click on the "Search Drive" field and input "MyFile"
+2. Press "Enter"</t>
     </r>
   </si>
   <si>
@@ -366,7 +337,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">:
-The website https://drive.google.com/ opened. And contained  the PDF fiel with name "MyFile"
+The website https://drive.google.com/ opened and contained any file
 </t>
     </r>
     <r>
@@ -391,6 +362,274 @@
         <scheme val="minor"/>
       </rPr>
       <t>:
+1. Click Right button on the file which should be shared
+2. Select "Share…"
+3. Click on the "Copy link" button
+4. Send the link to the recipient</t>
+    </r>
+  </si>
+  <si>
+    <t>The Collector’s Tour</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>OS: Windows 10 Enterprise x64</t>
+  </si>
+  <si>
+    <t>1. The file with name "MyFile" should be opened in view mode
+2. The selected file should be opened</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Preconditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+The website https://drive.google.com/ opened.
+These are the documents, spreadsheets, presentations, and site sizes you can store in Google Drive.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Documents:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Up to 1.02 million characters. If you convert a text document to Google Docs format, it can be up to 50 MB.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spreadsheets:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Up to 2 million cells for spreadsheets that are created in or converted to Google Sheets.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Presentations:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Up to 100 MB for presentations converted to Google Slides.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Google Sites (new):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Up to 200,000 characters per page, 10,000 images per site, and up to 1,000 pages (max 10 million characters).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All other files:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Up to 5 TB.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+1. Click on the "New" button
+2. Select "File upload"
+3. Select the file and press on the "Open" button
+4. Repeat steps for .ZIP, .RAR, tar, gzip, MP3, MPEG, WAV, .ogg, .JPEG, .PNG, .GIF, .BMP, .CSS, .HTML, .PHP, .C, .CPP, .H, .HPP, .JS, .TXT, WebM, .MPEG4, .3GPP, .MOV, .AVI, .MPEGPS, .WMV, .FLV, .ogg, .DXF, .AI, .PSD, .PDF, .EPS, .PS, .SVG, .TIFF, .TTF, .XLS and .XLSX, .PPT and .PPTX, .DOC and .DOCX, .XPS</t>
+    </r>
+  </si>
+  <si>
+    <t>1. The "New" button should be clicked and the context menu should be opened.
+2. The "File upload" should be selected and display the "Open" window.
+3. Selected file should be added to Google Drive and displayed in the file catalog</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Preconditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+The website https://drive.google.com/ opened and contained  the PDF file with name "MyFile". 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Default downloads location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C:\Users\UserName\Downloads 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Documents:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Up to 1.02 million characters. If the user convert a text document to Google Docs format, it can be up to 50 MB.
+Steps:
 1. Click Right button on the file "MyFile" with type .pdf 
 2. Select "Download"</t>
     </r>
@@ -418,7 +657,130 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">:
-The website https://drive.google.com/ opened. And contained  the folder with name "MyFile"
+The website https://drive.google.com/ opened and contained any file
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Default downloads location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C:\Users\UserName\Downloads
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+1. Click Right button on the file which should be downloaded
+2. Select "Download"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Preconditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+The website https://drive.google.com/ opened and contained  the empty folder with name "MyFile". 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Default downloads location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C:\Users\UserName\Downloads
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Max size:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Up to 5 TB.
 </t>
     </r>
     <r>
@@ -448,13 +810,6 @@
     </r>
   </si>
   <si>
-    <t>Preconditions:
-The website https://drive.google.com/ opened. And contained  the PDF fiel with name "MyFile"
-Steps:
-1. Click on the "Search Drive" field 
-2. Select "PDFs" from drop-down list</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -477,7 +832,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">:
-The website https://drive.google.com/ opened.
+The website https://drive.google.com/ opened. Folder "MyFolder" is empty.
 </t>
     </r>
     <r>
@@ -503,8 +858,8 @@
       </rPr>
       <t>:
 1. Click on the "New" button
-2. Select "File upload"
-3. Select the file and press on the "Open" button</t>
+2. Select "Folder upload"
+3. Select the folder and press on the "Open" button</t>
     </r>
   </si>
   <si>
@@ -530,111 +885,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">:
-The website https://drive.google.com/ opened and contained any file
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
-1. Click Right button on the file which should be removed
-2. Select "Remove"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Preconditions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-The website https://drive.google.com/ opened and contained any file
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
-1. Click Right button on the file which should be downloaded
-2. Select "Download"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Preconditions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-The website https://drive.google.com/ opened and contained any file
+The website https://drive.google.com/ opened and contained any file.
 </t>
     </r>
     <r>
@@ -666,6 +917,35 @@
     </r>
   </si>
   <si>
+    <t>1. The "New" button should be pressed and the Drop-down list should be opened
+2. The "Folder" should be selected
+3. The "MyFolder" should be entered
+4. The "Create" button should be pressed and added to the Google Drive and displayed in the file catalog</t>
+  </si>
+  <si>
+    <t>1. The context menu list should be opened and the Drop-down list should be opened
+2. The window "Share with others" should be opened
+3. The "Share link" should be copied
+4. The link must be received by the recipient and he should be with permission on view the file</t>
+  </si>
+  <si>
+    <t>1. The Drop-down list should be opened
+2. Selected file should be downloaded on the device</t>
+  </si>
+  <si>
+    <t>Preconditions:
+The website https://drive.google.com/ opened. And contained  the PDF file with name "MyFile".
+Steps:
+1. Click on the "Search Drive" field 
+2. Select "PDFs" from drop-down list
+3. Repeat steps for .ZIP, .RAR, tar, gzip, MP3, MPEG, WAV, .ogg, .JPEG, .PNG, .GIF, .BMP, .CSS, .HTML, .PHP, .C, .CPP, .H, .HPP, .JS, .TXT, WebM, .MPEG4, .3GPP, .MOV, .AVI, .MPEGPS, .WMV, .FLV, .ogg, .DXF, .AI, .PSD, .PDF, .EPS, .PS, .SVG, .TIFF, .TTF, .XLS and .XLSX, .PPT and .PPTX, .DOC and .DOCX, .XPS</t>
+  </si>
+  <si>
+    <t>1. The "Search Drive" field should be activated and displayed drop-down list with file types
+2. The search operation should find a file "MyFile" with pdf type and display it in the search results
+3. The search operation should find a file with correct type and display it in the search results</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -688,7 +968,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">:
-The website https://drive.google.com/ opened.
+The website https://drive.google.com/ opened. And contained  the PDF file with name "MyFile"
 </t>
     </r>
     <r>
@@ -713,9 +993,126 @@
         <scheme val="minor"/>
       </rPr>
       <t>:
-1. Click on the "New" button
-2. Select "Folder upload"
-3. Select the folder and press on the "Open" button</t>
+1. Double click on the file with name "MyFile".
+2. Repeat steps for .ogg, .JPEG, .PNG, .GIF, .BMP, .CSS, .HTML, .PHP, .C, .CPP, .H, .HPP, .JS, .TXT, WebM, .MPEG4, .3GPP, .MOV, .AVI, .MPEGPS, .WMV, .FLV, .ogg, .XLS and .XLSX, .PPT and .PPTX, .DOC and .DOCX, .XPS</t>
+    </r>
+  </si>
+  <si>
+    <t>1. The context menu should be opened and the context menu should be opened.
+2. "MyFile" file with type .pdf should be downloaded to the device in the "Downloads" folder</t>
+  </si>
+  <si>
+    <t>1. The context menu should be opened and the context menu should be opened.
+2. "MyFile" file with type .docx should be downloaded to the device in the "Downloads" folder</t>
+  </si>
+  <si>
+    <t>1. The context menu should be opened and the context menu should be opened.
+2. "MyFile" file with type .pptx should be downloaded to the device in the "Downloads" folder</t>
+  </si>
+  <si>
+    <t>1. The context menu should be opened and the context menu should be opened.
+2. "MyFile" file with type .xlsx should be downloaded to the device in the "Downloads" folder</t>
+  </si>
+  <si>
+    <t>1. The context menu should be opened and the context menu should be opened.
+2. The folder "MyFile" should be downloaded to the device in the "Downloads" folder</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Preconditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The website https://drive.google.com/ opened and contained  the .pptx file with name "MyFile". 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Default downloads location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: C:\Users\UserName\Downloads
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Presentations:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Up to 100 MB for presentations converted to Google Slides.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+1. Click Right button on the file "MyFile" with type .pptx 
+2. Select "Download"</t>
     </r>
   </si>
   <si>
@@ -741,7 +1138,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">:
-The website https://drive.google.com/ opened.
+The website https://drive.google.com/ opened and contained  the .docx file with name "MyFile". 
 </t>
     </r>
     <r>
@@ -754,6 +1151,52 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Default downloads location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: C:\Users\UserName\Downloads </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Documents:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Up to 1.02 million characters. If the user convert a text document to Google Docs format, it can be up to 50 MB.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Steps</t>
     </r>
     <r>
@@ -766,36 +1209,34 @@
         <scheme val="minor"/>
       </rPr>
       <t>:
-1. Click on the "New" button
-2. Select "Folder"
-3. Enter "MyFolder" in the input field
-4. Click on the "Create" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Preconditions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-The website https://drive.google.com/ opened. And contained  a file with name "MyFile"
+1. Click Right button on the file "MyFile" with type .docx 
+2. Select "Download"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Preconditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The website https://drive.google.com/ opened and contained  the .xlsx file with name "MyFile". 
 </t>
     </r>
     <r>
@@ -808,6 +1249,53 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Default downloads location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C:\Users\UserName\Downloads
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spreadsheets:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Up to 2 million cells for spreadsheets that are created in or converted to Google Sheets.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Steps</t>
     </r>
     <r>
@@ -820,113 +1308,8 @@
         <scheme val="minor"/>
       </rPr>
       <t>:
-1. Click on the "Search Drive" field and input "MyFile"
-2. Press "Enter"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Preconditions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-The website https://drive.google.com/ opened. And contained  the PDF fiel with name "MyFile"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
-1. Double click on the file with name "MyFile".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Preconditions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-The website https://drive.google.com/ opened and contained any file
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
-1. Click Right button on the file which should be shared
-2. Select "Share…"
-3. Click on the "Copy link" button
-4. Send the link to the recipient</t>
+1. Click Right button on the file "MyFile" with type .xlsx 
+2. Select "Download"</t>
     </r>
   </si>
 </sst>
@@ -934,7 +1317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,8 +1357,45 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -988,8 +1408,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1012,11 +1437,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1039,8 +1500,25 @@
     <xf numFmtId="22" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2138,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,9 +2630,10 @@
     <col min="4" max="4" width="37.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2176,8 +2655,11 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2185,22 +2667,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>26</v>
+      <c r="H2" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2208,22 +2693,25 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2231,22 +2719,25 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2254,22 +2745,25 @@
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2277,22 +2771,25 @@
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2300,22 +2797,25 @@
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2323,22 +2823,25 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2346,22 +2849,25 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2369,42 +2875,48 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2414,170 +2926,204 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8017AD0F-53C6-4B9B-9F76-C7C105C00970}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.140625" customWidth="1"/>
+    <col min="3" max="3" width="55.42578125" customWidth="1"/>
     <col min="4" max="4" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="3" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>43</v>
+      <c r="G5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="7" t="s">
+    <row r="6" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>43</v>
+      <c r="C6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="7" t="s">
+    <row r="7" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>43</v>
+      <c r="D7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2C65E8-1A94-4DE8-8E5F-4D71B241F527}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
